--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43242,6 +43242,41 @@
         <v>259100</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>36600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43277,6 +43277,41 @@
         <v>36600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43312,6 +43312,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43382,6 +43382,41 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>43400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,41 @@
         <v>43400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43452,6 +43452,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43487,6 +43487,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43522,6 +43522,43 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43594,6 +43594,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>862100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43629,6 +43629,41 @@
         <v>862100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>25900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43664,6 +43664,76 @@
         <v>25900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43734,6 +43734,76 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>370600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43804,6 +43804,41 @@
         <v>370600</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>84600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,41 @@
         <v>84600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>69600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43909,6 +43909,41 @@
         <v>69600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43944,6 +43944,76 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>114600</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>26200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44014,6 +44014,41 @@
         <v>26200</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>136000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44049,6 +44049,41 @@
         <v>136000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>667600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65399,6 +65399,41 @@
         <v>667600</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>598900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1850"/>
+  <dimension ref="A1:I1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65434,6 +65434,41 @@
         <v>598900</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>335300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1851"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65469,6 +65469,43 @@
         <v>335300</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1852" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1852"/>
+  <dimension ref="A1:I1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65506,6 +65506,41 @@
         </is>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>129200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1853"/>
+  <dimension ref="A1:I1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65541,6 +65541,41 @@
         <v>129200</v>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1854"/>
+  <dimension ref="A1:I1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65576,6 +65576,43 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1855" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1855"/>
+  <dimension ref="A1:I1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65613,6 +65613,41 @@
         </is>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1856"/>
+  <dimension ref="A1:I1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65648,6 +65648,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1857"/>
+  <dimension ref="A1:I1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65683,6 +65683,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1858"/>
+  <dimension ref="A1:I1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65718,6 +65718,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1859" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1859"/>
+  <dimension ref="A1:I1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65755,6 +65755,41 @@
         </is>
       </c>
     </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1860" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1860" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1860"/>
+  <dimension ref="A1:I1861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65790,6 +65790,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1861" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1861" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1861"/>
+  <dimension ref="A1:I1862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65825,6 +65825,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1862" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1862" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1862"/>
+  <dimension ref="A1:I1863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65862,6 +65862,43 @@
         </is>
       </c>
     </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1863" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1863" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7595.xlsx
+++ b/data/7595.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1863"/>
+  <dimension ref="A1:I1864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65899,6 +65899,43 @@
         </is>
       </c>
     </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>MGB</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1864" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
